--- a/CDM Content/Digital Building Twin/CDM_MDrivingObject.xlsx
+++ b/CDM Content/Digital Building Twin/CDM_MDrivingObject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuathiele/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buildingminds1.sharepoint.com/sites/CDM-testteam/Freigegebene Dokumente/General/CDM Content/Digital Building Twin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F3F4C4-E523-A04B-921C-53F88A67D9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{05F3F4C4-E523-A04B-921C-53F88A67D9D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{555BA679-0DA5-5D4C-AA38-28A1382FEB22}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,19 +709,33 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15B53E2A-8ECA-4402-AE07-7A2B08548575}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15B53E2A-8ECA-4402-AE07-7A2B08548575}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>